--- a/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,8</t>
+          <t>-2,93; 1,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 12,46</t>
+          <t>0,41; 13,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 7,35</t>
+          <t>-7,46; 7,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 7,8</t>
+          <t>-5,82; 7,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 1123,99</t>
+          <t>-32,98; 1162,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-72,39; 184,25</t>
+          <t>-68,27; 171,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 344,97</t>
+          <t>-53,97; 312,5</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,01</t>
+          <t>-1,49; 1,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,62</t>
+          <t>2,61; 9,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,73</t>
+          <t>0,44; 5,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,41</t>
+          <t>-2,27; 2,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,6; 153,58</t>
+          <t>-54,31; 168,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,23; 235,29</t>
+          <t>36,75; 238,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 262,46</t>
+          <t>5,31; 276,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 48,4</t>
+          <t>-28,13; 52,78</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,13</t>
+          <t>-1,41; 2,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,46</t>
+          <t>0,75; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,66</t>
+          <t>0,16; 3,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,29</t>
+          <t>1,72; 5,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 72,87</t>
+          <t>-30,64; 72,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 134,5</t>
+          <t>12,75; 145,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 183,47</t>
+          <t>2,25; 172,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,73; 179,67</t>
+          <t>34,03; 176,08</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,16</t>
+          <t>-0,14; 4,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,28</t>
+          <t>1,97; 7,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,73</t>
+          <t>-0,48; 3,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,03</t>
+          <t>-2,16; 2,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 187,83</t>
+          <t>-4,85; 193,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,59; 234,49</t>
+          <t>37,48; 269,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 152,8</t>
+          <t>-14,31; 130,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 68,63</t>
+          <t>-32,25; 66,35</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,61</t>
+          <t>1,54; 5,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,57</t>
+          <t>3,01; 7,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,61</t>
+          <t>0,41; 4,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,16</t>
+          <t>0,21; 4,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,78; 232,44</t>
+          <t>33,68; 235,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,47; 194,76</t>
+          <t>50,63; 207,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 164,54</t>
+          <t>5,86; 141,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 86,6</t>
+          <t>2,28; 88,65</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,54</t>
+          <t>0,68; 2,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,94</t>
+          <t>3,55; 5,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,11</t>
+          <t>1,1; 3,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,12</t>
+          <t>0,82; 2,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,73; 94,34</t>
+          <t>18,75; 99,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,32; 146,09</t>
+          <t>66,14; 142,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,24; 105,62</t>
+          <t>26,05; 102,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,29; 65,27</t>
+          <t>13,49; 62,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,79</t>
+          <t>-2,9; 1,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 13,62</t>
+          <t>0,36; 12,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 7,39</t>
+          <t>-7,24; 7,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 1162,23</t>
+          <t>-20,34; 1126,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-68,27; 171,39</t>
+          <t>-69,32; 171,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,99</t>
+          <t>-1,3; 2,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,51</t>
+          <t>3,04; 9,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,65</t>
+          <t>0,43; 5,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,31; 168,71</t>
+          <t>-51,88; 176,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,75; 238,79</t>
+          <t>41,67; 248,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 276,35</t>
+          <t>8,25; 247,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,24</t>
+          <t>-1,72; 2,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,36</t>
+          <t>0,93; 5,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,46</t>
+          <t>0,19; 3,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 72,22</t>
+          <t>-33,92; 68,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,75; 145,55</t>
+          <t>14,9; 130,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 172,91</t>
+          <t>2,97; 189,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,36</t>
+          <t>-0,29; 4,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 7,4</t>
+          <t>1,95; 6,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,66</t>
+          <t>-0,82; 3,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 193,33</t>
+          <t>-9,08; 179,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,48; 269,18</t>
+          <t>36,27; 232,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 130,37</t>
+          <t>-19,22; 126,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,45</t>
+          <t>1,78; 5,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,65</t>
+          <t>2,86; 7,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,36</t>
+          <t>0,23; 4,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,68; 235,66</t>
+          <t>38,93; 231,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,63; 207,22</t>
+          <t>50,62; 204,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 141,11</t>
+          <t>4,66; 139,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,77</t>
+          <t>0,74; 2,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,91</t>
+          <t>3,4; 5,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,14</t>
+          <t>1,11; 3,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,75; 99,32</t>
+          <t>19,0; 90,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>66,14; 142,13</t>
+          <t>63,8; 142,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,05; 102,0</t>
+          <t>27,89; 104,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,81</t>
+          <t>-2,97; 1,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 12,61</t>
+          <t>0,19; 12,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 7,38</t>
+          <t>-7,27; 7,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 7,61</t>
+          <t>-5,39; 7,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 1126,05</t>
+          <t>-19,77; 1123,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,32; 171,42</t>
+          <t>-72,39; 184,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,97; 312,5</t>
+          <t>-50,11; 344,97</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,04</t>
+          <t>-1,43; 2,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 9,67</t>
+          <t>2,67; 9,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,51</t>
+          <t>0,42; 5,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 2,53</t>
+          <t>-2,48; 2,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 176,42</t>
+          <t>-53,6; 153,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,67; 248,65</t>
+          <t>36,23; 235,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,25; 247,76</t>
+          <t>6,21; 262,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 52,78</t>
+          <t>-31,36; 48,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,17</t>
+          <t>-1,78; 2,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,33</t>
+          <t>1,18; 5,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 3,61</t>
+          <t>0,31; 3,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,27</t>
+          <t>1,64; 5,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 68,3</t>
+          <t>-35,14; 72,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 130,83</t>
+          <t>17,89; 134,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 189,7</t>
+          <t>7,1; 183,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,03; 176,08</t>
+          <t>33,73; 179,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,25</t>
+          <t>-0,3; 4,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,97</t>
+          <t>1,95; 7,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,45</t>
+          <t>-0,47; 3,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,83</t>
+          <t>-2,18; 3,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 179,39</t>
+          <t>-7,83; 187,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,27; 232,53</t>
+          <t>34,59; 234,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 126,75</t>
+          <t>-12,83; 152,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 66,35</t>
+          <t>-33,96; 68,63</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,74</t>
+          <t>1,63; 5,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,57</t>
+          <t>2,72; 7,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 4,4</t>
+          <t>0,37; 4,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,42</t>
+          <t>0,4; 4,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,93; 231,54</t>
+          <t>35,78; 232,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,62; 204,76</t>
+          <t>45,47; 194,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 139,04</t>
+          <t>7,22; 164,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 88,65</t>
+          <t>4,41; 86,6</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,56</t>
+          <t>0,58; 2,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,9</t>
+          <t>3,53; 5,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,16</t>
+          <t>1,05; 3,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,99</t>
+          <t>0,85; 3,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,0; 90,79</t>
+          <t>15,73; 94,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>63,8; 142,82</t>
+          <t>68,32; 146,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,89; 104,44</t>
+          <t>26,24; 105,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,49; 62,78</t>
+          <t>14,29; 65,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>194,99%</t>
+          <t>124,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>65,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>11,53%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,8</t>
+          <t>-1,18; 1,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 12,46</t>
+          <t>3,16; 8,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 7,35</t>
+          <t>0,21; 5,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 7,8</t>
+          <t>-1,86; 2,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,58; 146,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 1123,99</t>
+          <t>45,59; 234,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-72,39; 184,25</t>
+          <t>3,13; 178,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 344,97</t>
+          <t>-23,33; 58,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>116,18%</t>
+          <t>65,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>101,53%</t>
+          <t>66,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>135,27%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,01</t>
+          <t>-1,78; 2,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,62</t>
+          <t>1,18; 5,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,73</t>
+          <t>0,31; 3,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,41</t>
+          <t>2,37; 6,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,6; 153,58</t>
+          <t>-35,14; 72,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,23; 235,29</t>
+          <t>17,89; 134,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 262,46</t>
+          <t>7,1; 183,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 48,4</t>
+          <t>53,39; 374,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>65,7%</t>
+          <t>115,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>-1,66%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,13</t>
+          <t>-0,3; 4,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,46</t>
+          <t>1,95; 7,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,66</t>
+          <t>-0,47; 3,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,29</t>
+          <t>-3,48; 2,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 72,87</t>
+          <t>-7,83; 187,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 134,5</t>
+          <t>34,59; 234,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 183,47</t>
+          <t>-12,83; 152,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,73; 179,67</t>
+          <t>-52,76; 55,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,3%</t>
+          <t>113,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>115,34%</t>
+          <t>111,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>63,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>32,0%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,16</t>
+          <t>1,63; 5,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,28</t>
+          <t>2,72; 7,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,73</t>
+          <t>0,37; 4,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,03</t>
+          <t>-0,27; 3,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 187,83</t>
+          <t>35,78; 232,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,59; 234,49</t>
+          <t>45,47; 194,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 152,8</t>
+          <t>7,22; 164,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 68,63</t>
+          <t>-3,53; 77,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>113,04%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>111,88%</t>
+          <t>100,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>40,6%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,61</t>
+          <t>0,58; 2,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,57</t>
+          <t>3,53; 5,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,61</t>
+          <t>1,05; 3,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,16</t>
+          <t>0,56; 3,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,78; 232,44</t>
+          <t>15,73; 94,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,47; 194,76</t>
+          <t>68,32; 146,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 164,54</t>
+          <t>26,24; 105,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 86,6</t>
+          <t>11,22; 83,81</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>52,2%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>100,9%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>59,55%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>37,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 2,54</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 5,94</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 3,11</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 3,12</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>15,73; 94,34</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>68,32; 146,09</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>26,24; 105,62</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>14,29; 65,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,56</t>
+          <t>-1,27; 1,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 8,8</t>
+          <t>3,12; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 5,01</t>
+          <t>0,18; 5,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,89</t>
+          <t>-1,78; 2,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 146,5</t>
+          <t>-53,43; 135,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,59; 234,88</t>
+          <t>47,01; 239,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 178,05</t>
+          <t>1,4; 193,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 58,34</t>
+          <t>-23,53; 56,31</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,13</t>
+          <t>-1,71; 2,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,46</t>
+          <t>1,02; 5,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,66</t>
+          <t>0,21; 3,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,47</t>
+          <t>2,49; 6,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 72,87</t>
+          <t>-34,51; 69,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 134,5</t>
+          <t>15,37; 139,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 183,47</t>
+          <t>4,75; 168,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,39; 374,23</t>
+          <t>59,61; 334,53</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,16</t>
+          <t>-0,18; 4,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,28</t>
+          <t>1,9; 7,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,73</t>
+          <t>-0,72; 3,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 2,49</t>
+          <t>-3,73; 2,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 187,83</t>
+          <t>-7,33; 194,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,59; 234,49</t>
+          <t>34,17; 254,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 152,8</t>
+          <t>-15,66; 135,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,76; 55,5</t>
+          <t>-53,66; 56,33</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,61</t>
+          <t>1,59; 5,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,57</t>
+          <t>3,06; 7,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,61</t>
+          <t>0,38; 4,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,86</t>
+          <t>-0,62; 3,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,78; 232,44</t>
+          <t>33,62; 232,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,47; 194,76</t>
+          <t>51,08; 204,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 164,54</t>
+          <t>7,07; 150,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 77,51</t>
+          <t>-8,04; 77,21</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,54</t>
+          <t>0,56; 2,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,94</t>
+          <t>3,29; 5,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,11</t>
+          <t>0,98; 3,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,36</t>
+          <t>0,61; 3,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,73; 94,34</t>
+          <t>15,35; 93,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,32; 146,09</t>
+          <t>65,16; 146,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,24; 105,62</t>
+          <t>26,09; 103,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 83,81</t>
+          <t>12,92; 83,86</t>
         </is>
       </c>
     </row>
